--- a/docs/Requisitos/Matriz_Rastreabilidade.xlsx
+++ b/docs/Requisitos/Matriz_Rastreabilidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizleao/Google Drive/Mestrado/despesasMedicasKirn/doc/Requisitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizleao/Google Drive/Mestrado/despesasMedicasKirn/docs/Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4AE4BE-8430-8E46-8298-5254F784CE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C743F983-9147-B541-8E32-0CBE3FE2DE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="30740" windowHeight="17560" xr2:uid="{B60EF89D-7156-6347-8FA5-B41C23FB7FB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Matriz de Rastreabilidade</t>
   </si>
@@ -146,10 +146,16 @@
     <t>REQ_006 - Manter Servidor</t>
   </si>
   <si>
+    <t>REQ018</t>
+  </si>
+  <si>
     <t>Sistema RH</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>REQ_018 - Manter Procedimento Autorizado</t>
   </si>
 </sst>
 </file>
@@ -624,20 +630,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9110B6C-2BFF-644D-ACB7-E28FEFE23A40}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -659,10 +665,10 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -681,7 +687,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -734,8 +740,11 @@
       <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -764,8 +773,9 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -788,8 +798,9 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -812,8 +823,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -836,8 +848,9 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -860,8 +873,9 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -890,8 +904,9 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -918,8 +933,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -942,8 +958,9 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -974,8 +991,9 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -998,8 +1016,9 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1032,8 +1051,9 @@
         <v>35</v>
       </c>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1058,8 +1078,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,8 +1105,9 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1108,8 +1130,9 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1161,9 @@
       <c r="R18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1162,8 +1186,9 @@
         <v>12</v>
       </c>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1188,6 +1213,34 @@
       <c r="R20" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
